--- a/Método de identificación/DM/binaria_2_DM.xlsx
+++ b/Método de identificación/DM/binaria_2_DM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Daniela\Tesis\Trabajo-de-grado_Artefactos\Método de identificación\DM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nataly\Documents\Trabajo-de-grado_Artefactos\Método de identificación\DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,13 +26,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Clase</t>
-  </si>
-  <si>
     <t>EntropiaSF</t>
   </si>
   <si>
     <t>sSIMN</t>
+  </si>
+  <si>
+    <t>clase</t>
   </si>
 </sst>
 </file>
@@ -393,21 +393,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="E310" sqref="E310"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/Método de identificación/DM/binaria_2_DM.xlsx
+++ b/Método de identificación/DM/binaria_2_DM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nataly\Documents\Trabajo-de-grado_Artefactos\Método de identificación\DM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Daniela\Tesis\Trabajo-de-grado_Artefactos\Método de identificación\DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
     <t>sSIMN</t>
   </si>
   <si>
-    <t>clase</t>
+    <t>Clase</t>
   </si>
 </sst>
 </file>
